--- a/Results/Calculation/dp-partial-w2v.xlsx
+++ b/Results/Calculation/dp-partial-w2v.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="G2">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="I2">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="G4">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H4">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="I4">
         <v>0.84</v>
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="G5">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="H5">
         <v>0.51</v>
       </c>
       <c r="I5">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
